--- a/public/assets_dashboard/files/templates/products-template.xlsx
+++ b/public/assets_dashboard/files/templates/products-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\apps\cayshly\public\assets_dashboard\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15216379-1B4A-4A66-AD12-1A33D8E6B9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872D1CC2-29D3-4174-A346-F1BD4E72BBD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>details</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>price</t>
   </si>
@@ -43,6 +40,15 @@
   </si>
   <si>
     <t>name ar</t>
+  </si>
+  <si>
+    <t>details en</t>
+  </si>
+  <si>
+    <t>details ar</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
 </sst>
 </file>
@@ -360,36 +366,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
